--- a/Servidores y Usuarios.xlsx
+++ b/Servidores y Usuarios.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurojas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AF108-5F65-4E5C-B77A-1AA1A960CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE8AAD6-3260-439A-B0A2-158F4BF2D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
+    <workbookView xWindow="-4155" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
   <si>
     <t>Consola Infor10</t>
   </si>
@@ -385,9 +386,6 @@
   </si>
   <si>
     <t>Arion$2018</t>
-  </si>
-  <si>
-    <t>Philips y DA (SCPHL) -</t>
   </si>
   <si>
     <t>Samsonite (SCMC1) -</t>
@@ -459,13 +457,25 @@
     </r>
   </si>
   <si>
-    <t>WMwhSql1</t>
-  </si>
-  <si>
     <t>esquema y usuario</t>
   </si>
   <si>
     <t xml:space="preserve"> TPV</t>
+  </si>
+  <si>
+    <t>Philips y DA (SCPHL) - LV (SCMDZ - wmwhse2)</t>
+  </si>
+  <si>
+    <t>Infor 9: usuario = esquema (ej: WMWHSE2)</t>
+  </si>
+  <si>
+    <t>Clave: WMwhSql(y el n° del esquema, 2)</t>
+  </si>
+  <si>
+    <t>Unigis support: Exologistica - JBR132bed</t>
+  </si>
+  <si>
+    <t>Nike  wmwhse1</t>
   </si>
 </sst>
 </file>
@@ -590,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,6 +636,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD9A9C-B373-4067-815B-7E956C69A32C}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K15"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,28 +979,28 @@
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1158,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1190,6 +1206,9 @@
       <c r="O7" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="P7" s="13" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
@@ -1223,7 +1242,7 @@
         <v>52</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1277,16 +1296,16 @@
         <v>19</v>
       </c>
       <c r="K11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1303,16 +1322,16 @@
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1329,16 +1348,16 @@
         <v>15</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="M13" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1355,13 +1374,13 @@
         <v>15</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,13 +1400,13 @@
         <v>69</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -1424,10 +1443,10 @@
         <v>77</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" ht="18" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
@@ -1444,7 +1463,7 @@
         <v>69</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
@@ -1514,6 +1533,9 @@
       <c r="I22" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="N22" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
@@ -1532,7 +1554,7 @@
         <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
@@ -1618,6 +1640,10 @@
       </c>
       <c r="I28" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="N28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">

--- a/Servidores y Usuarios.xlsx
+++ b/Servidores y Usuarios.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurojas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE8AAD6-3260-439A-B0A2-158F4BF2D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB3A6A-AE30-4483-B697-2807C8CCA0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4155" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,9 +387,6 @@
     <t>Arion$2018</t>
   </si>
   <si>
-    <t>Samsonite (SCMC1) -</t>
-  </si>
-  <si>
     <t>cliente </t>
   </si>
   <si>
@@ -476,6 +472,11 @@
   </si>
   <si>
     <t>Nike  wmwhse1</t>
+  </si>
+  <si>
+    <t>P-  - --wmwhse2 puma
+--wmwhse3 Samsonite (SCMC1)
+--wmwhse1 converse</t>
   </si>
 </sst>
 </file>
@@ -620,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -647,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD9A9C-B373-4067-815B-7E956C69A32C}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,24 +984,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="15" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1142,7 +1143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1173,8 +1174,8 @@
       <c r="O6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>117</v>
+      <c r="P6" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1206,8 +1207,8 @@
       <c r="O7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>138</v>
+      <c r="P7" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -1242,7 +1243,7 @@
         <v>52</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1295,14 +1296,14 @@
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1321,14 +1322,14 @@
       <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1347,14 +1348,14 @@
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>122</v>
+      <c r="M13" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1373,14 +1374,14 @@
       <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,14 +1400,14 @@
       <c r="I15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -1442,8 +1443,8 @@
       <c r="I17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>130</v>
+      <c r="K17" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
@@ -1462,8 +1463,8 @@
       <c r="I18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>131</v>
+      <c r="K18" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
@@ -1534,7 +1535,7 @@
         <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
@@ -1554,7 +1555,7 @@
         <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
@@ -1641,9 +1642,9 @@
       <c r="I28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="13"/>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">

--- a/Servidores y Usuarios.xlsx
+++ b/Servidores y Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurojas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB3A6A-AE30-4483-B697-2807C8CCA0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF7ABA-CB71-4891-8B68-0A888E8051F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
   </bookViews>
@@ -459,9 +459,6 @@
     <t xml:space="preserve"> TPV</t>
   </si>
   <si>
-    <t>Philips y DA (SCPHL) - LV (SCMDZ - wmwhse2)</t>
-  </si>
-  <si>
     <t>Infor 9: usuario = esquema (ej: WMWHSE2)</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
     <t>P-  - --wmwhse2 puma
 --wmwhse3 Samsonite (SCMC1)
 --wmwhse1 converse</t>
+  </si>
+  <si>
+    <t>Philips y DA (SCPHL) - LV (SCMDZ - wmwhse2) - Gerula (SCMC4 - wmwhse3)</t>
   </si>
 </sst>
 </file>
@@ -641,13 +641,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD9A9C-B373-4067-815B-7E956C69A32C}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,24 +984,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1174,8 +1174,8 @@
       <c r="O6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>138</v>
+      <c r="P6" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>44</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>52</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>77</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K28" s="13"/>
       <c r="N28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">

--- a/Servidores y Usuarios.xlsx
+++ b/Servidores y Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurojas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF7ABA-CB71-4891-8B68-0A888E8051F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFF4DA-BDDC-4327-BAA4-454A70F4B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
   </bookViews>
@@ -471,12 +471,14 @@
     <t>Nike  wmwhse1</t>
   </si>
   <si>
-    <t>P-  - --wmwhse2 puma
---wmwhse3 Samsonite (SCMC1)
---wmwhse1 converse</t>
-  </si>
-  <si>
-    <t>Philips y DA (SCPHL) - LV (SCMDZ - wmwhse2) - Gerula (SCMC4 - wmwhse3)</t>
+    <t>wmwhse2 - Puma (SCMC1)
+wmwhse3 - Samsonite (SCMC1)
+wmwhse1 - Converse</t>
+  </si>
+  <si>
+    <t>Philips y DA (SCPHL wmwhse1 - wmwhse2) 
+LV (SCMDZ - wmwhse2)
+Gerula (SCMC4 - wmwhse3)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,9 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -965,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD9A9C-B373-4067-815B-7E956C69A32C}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,24 +983,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="15" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1174,7 +1173,7 @@
       <c r="O6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1207,11 +1206,11 @@
       <c r="O7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1242,7 +1241,7 @@
       <c r="O8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1296,13 +1295,13 @@
       <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1322,13 +1321,13 @@
       <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1348,13 +1347,13 @@
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1374,13 +1373,13 @@
       <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1400,13 +1399,13 @@
       <c r="I15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1443,7 +1442,7 @@
       <c r="I17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1463,7 +1462,7 @@
       <c r="I18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1642,7 +1641,7 @@
       <c r="I28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="13"/>
+      <c r="K28" s="12"/>
       <c r="N28" t="s">
         <v>135</v>
       </c>

--- a/Servidores y Usuarios.xlsx
+++ b/Servidores y Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurojas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFF4DA-BDDC-4327-BAA4-454A70F4B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CFA5BC-4CA1-4D4D-BF82-BFD102D171D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
   </bookViews>
@@ -468,15 +468,14 @@
     <t>Unigis support: Exologistica - JBR132bed</t>
   </si>
   <si>
-    <t>Nike  wmwhse1</t>
-  </si>
-  <si>
-    <t>wmwhse2 - Puma (SCMC1)
-wmwhse3 - Samsonite (SCMC1)
-wmwhse1 - Converse</t>
-  </si>
-  <si>
-    <t>Philips y DA (SCPHL wmwhse1 - wmwhse2) 
+    <t xml:space="preserve">Converse (SCMC1 - wmwhse1)                             Puma (SCMC1 - wmwhse2)
+Samsonite (SCMC1 - wmwhse3) </t>
+  </si>
+  <si>
+    <t>Nike (wmwhse1)</t>
+  </si>
+  <si>
+    <t>Philips y DA (SCPHL - wmwhse1) 
 LV (SCMDZ - wmwhse2)
 Gerula (SCMC4 - wmwhse3)</t>
   </si>
@@ -964,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD9A9C-B373-4067-815B-7E956C69A32C}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1173,7 @@
         <v>37</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1207,7 +1206,7 @@
         <v>44</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="45" x14ac:dyDescent="0.25">

--- a/Servidores y Usuarios.xlsx
+++ b/Servidores y Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurojas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CFA5BC-4CA1-4D4D-BF82-BFD102D171D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF6DC81-C7D9-4B60-BED5-FFF5722FEFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EBA04842-8667-49F8-8C83-2320EE102A71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="140">
   <si>
     <t>Consola Infor10</t>
   </si>
@@ -477,7 +477,12 @@
   <si>
     <t>Philips y DA (SCPHL - wmwhse1) 
 LV (SCMDZ - wmwhse2)
+Sabic (SCMC4 - wmwhse1)
 Gerula (SCMC4 - wmwhse3)</t>
+  </si>
+  <si>
+    <t>ClickApp: M2023 
+Argentina.gob.ar - M23</t>
   </si>
 </sst>
 </file>
@@ -602,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +651,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD9A9C-B373-4067-815B-7E956C69A32C}">
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="60" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1328,6 +1336,9 @@
       </c>
       <c r="M12" s="9" t="s">
         <v>121</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
